--- a/biology/Médecine/Classe_ATC_L02/Classe_ATC_L02.xlsx
+++ b/biology/Médecine/Classe_ATC_L02/Classe_ATC_L02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC L02, dénommée « Thérapeutique endocrine », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QL02[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique L de la classification, intitulé « Antinéoplasiques et agents immunomodulants ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC L02, dénommée « Thérapeutique endocrine », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QL02. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique L de la classification, intitulé « Antinéoplasiques et agents immunomodulants ».
 </t>
         </is>
       </c>
@@ -513,72 +525,286 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>L02AA Estrogènes
-L02AA01 Diéthylstilbestrol 
+          <t>L02AA Estrogènes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L02AA01 Diéthylstilbestrol 
 L02AA02 Polyestradiol phosphate (en)
 L02AA03 Éthinylestradiol
-L02AA04 Fosfestrol (en)
-L02AB Progestatifs
-L02AB01 Mégestrol (en)
+L02AA04 Fosfestrol (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>L02A Hormones et apparentés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>L02AB Progestatifs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L02AB01 Mégestrol (en)
 L02AB02 Médroxyprogestérone
-L02AB03 Gestonorone (en)
-L02AE Analogues de l'hormone entraînant la libération de gonadotrophines
-L02AE01 Buséréline (en)
+L02AB03 Gestonorone (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L02</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>L02A Hormones et apparentés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L02AE Analogues de l'hormone entraînant la libération de gonadotrophines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L02AE01 Buséréline (en)
 L02AE02 Leuproréline
 L02AE03 Goséréline
 L02AE04 Triptoréline
-L02AE05 Histréline (en)
-L02AX Autres hormones
-Classe vide.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+L02AE05 Histréline (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Classe_ATC_L02</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classe_ATC_L02</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>L02A Hormones et apparentés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L02AX Autres hormones</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Classe vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L02</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>L02B Antihormones et apparentés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L02BA Anti-estrogènes
-L02BA01 Tamoxifène
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>L02BA Anti-estrogènes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L02BA01 Tamoxifène
 L02BA02 Torémifène (en)
-L02BA03 Fulvestrant
-L02BB Anti-androgènes
-L02BB01 Flutamide (en)
+L02BA03 Fulvestrant</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L02</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>L02B Antihormones et apparentés</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>L02BB Anti-androgènes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L02BB01 Flutamide (en)
 L02BB02 Nilutamide
 L02BB03 Bicalutamide (en)
 L02BB04 Enzalutamide
 L02BB05 Apalutamide
-L02BB06 Darolutamide
-L02BG Inhibiteurs de l'aromatase
-L02BG01 Aminogluthétimide (en)
+L02BB06 Darolutamide</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L02</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>L02B Antihormones et apparentés</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>L02BG Inhibiteurs de l'aromatase</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L02BG01 Aminogluthétimide (en)
 L02BG02 Formestane
 L02BG03 Anastrozole
 L02BG04 Létrozole
 L02BG05 Vorozole (en)
-L02BG06 Exémestane
-L02BX Autres antihormones et apparentés
-L02BX01 Abarélix (en)
+L02BG06 Exémestane</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>L02B Antihormones et apparentés</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>L02BX Autres antihormones et apparentés</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L02BX01 Abarélix (en)
 L02BX02 Dégarélix (en)
 L02BX03 Abiratérone</t>
         </is>
